--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -46,7 +46,35 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">When attacked, you may summon this aspect as an instantaneous action. Roll a d4, on any number except a natural 1, all damage you would take this turn is negated. </t>
+    <t xml:space="preserve">When attacked, you may summon this aspect as an instantaneous action. Roll 1d6, on any number except a natural 1, all damage you would take this turn is negated as nature itself comes to your aid – a falling tree branch distracts your enemies, or a nearby cliff collapses, covering them in small stones and temporarily blocking their path. 
+Every time you use this ability, the minimum dice roll needed to successfully deflect damage increases by 1. This counter resets on a short rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun \&amp; Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can choose to glow with bright light, either fiery orange like the sun, or a quiet silver like the moon. You emit bright light around you for 5 metres, and dim light for a further 15 metres. 
+For the purposes of werewolves, vampires and other creatures susceptible to the Sun or the Moon, your glow is to be treated like the real thing, and affects them as such, if they are within 5 metres of you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature\apos{}s Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the next minute, you gain a bonus to all Resist checks you perform gain a bonus equal to half your Druid level (rounded up). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druid Shrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By expending 3 hours work, you can create a small shrine in a natural place – maybe a stone circle, or a clearing in a wood, decorated with feathers and other such totems of nature. This shrine covers an area up to 3 metres in radius. 
+Beings which take a Long Rest inside the Shrine find that they lose an additional level of exhaustion to normal, and if they had no exhaustion to begin with, they wake with the {\it Calm Mind} status effect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revert to Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon touching an object manufactured from some visible natural substance, such as a wooden table, or a stone statue, you may imbue it with magical energy, and encourage it to retake its natural form in some way. The table might put down roots and begin to grow, whilst the statue might accumulate dust until it resembles a boulder. 
+This Aspect cannot bring about instantaneous, drastic change, but merely allows you to guide objects back into the natural cycle of being. </t>
   </si>
 </sst>
 </file>
@@ -61,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,13 +156,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -152,47 +190,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="80.97"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -75,6 +75,30 @@
   <si>
     <t xml:space="preserve">Upon touching an object manufactured from some visible natural substance, such as a wooden table, or a stone statue, you may imbue it with magical energy, and encourage it to retake its natural form in some way. The table might put down roots and begin to grow, whilst the statue might accumulate dust until it resembles a boulder. 
 This Aspect cannot bring about instantaneous, drastic change, but merely allows you to guide objects back into the natural cycle of being. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your movement speed is doubled for 30 seconds, and you may jump twice as far as normal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This aspect may be used as an instantaneous action – if you are in contact with the ground, you become impossible to move unless you choose to. This effect lasts for 20 seconds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst exposed to direct sunlight, you recover Health Points at a rate of 1 per minute. This effect ends if you take necrotic damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric effects such as rain, snow, strong winds or scorching heat have no effect on you in terms of limiting visibility or increasing movement costs. </t>
   </si>
 </sst>
 </file>
@@ -190,13 +214,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="80.97"/>
@@ -275,6 +299,50 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$11</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -77,22 +80,28 @@
 This Aspect cannot bring about instantaneous, drastic change, but merely allows you to guide objects back into the natural cycle of being. </t>
   </si>
   <si>
+    <t xml:space="preserve">Aspect of Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This aspect may be used as an instantaneous action – if you are in contact with the ground, you become impossible to move unless you choose to. This effect lasts for 20 seconds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whilst exposed to direct sunlight, you recover Health Points at a rate of 1 per minute. This effect ends if you take necrotic damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imbue up to 4 willing targets within 3 metres that you can see with healing energies. Restore HP to each of them, with amount determined by rolling d4s equal to half your druid level. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Aspect of the Wind</t>
   </si>
   <si>
     <t xml:space="preserve">Your movement speed is doubled for 30 seconds, and you may jump twice as far as normal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect of Roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This aspect may be used as an instantaneous action – if you are in contact with the ground, you become impossible to move unless you choose to. This effect lasts for 20 seconds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect of the Leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whilst exposed to direct sunlight, you recover Health Points at a rate of 1 per minute. This effect ends if you take necrotic damage. </t>
   </si>
   <si>
     <t xml:space="preserve">Aspect of the Weather</t>
@@ -199,14 +208,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -214,13 +227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="80.97"/>
@@ -246,7 +259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -257,7 +270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="70.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -279,7 +292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -290,7 +303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -301,11 +314,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -334,7 +347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
@@ -345,7 +358,19 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F11"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -353,5 +378,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">Aspect of the Leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">Whilst exposed to direct sunlight, you recover Health Points at a rate of 1 per minute. This effect ends if you take necrotic damage. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspect of the Willow</t>
+    <t xml:space="preserve">Whilst exposed to direct sunlight, you recover Health Points at a rate of 1 per minute. This effect ends if you take necrotic or fire damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Healing Willow</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue up to 4 willing targets within 3 metres that you can see with healing energies. Restore HP to each of them, with amount determined by rolling d4s equal to half your druid level. </t>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve">Atmospheric effects such as rain, snow, strong winds or scorching heat have no effect on you in terms of limiting visibility or increasing movement costs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of Bark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A target which you lay your hands on (or yourself) grows a thick, barklike growth over their ski, which lasts for 1 minute before falling off. This grants a bonus to your Block equal to one half your Druid level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspect of the Mighty Oak</t>
   </si>
 </sst>
 </file>
@@ -227,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:F12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,6 +376,22 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
+++ b/CoreRulebook/Data/Archetypes/Archetype Supplementals/Druid_Aspects.xlsx
@@ -263,8 +263,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,7 +354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
